--- a/hardware/_deprecated/beaglebone_pinout_concept.xlsx
+++ b/hardware/_deprecated/beaglebone_pinout_concept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Documents\GitHub\shepherd\hardware\_deprecated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{202BF6CC-F0D2-461B-B03A-C2F031D29A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75E6AC29-F680-499C-BF9C-F48B45EA9F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5688" yWindow="1128" windowWidth="23052" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="0" windowWidth="9288" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="416" uniqueCount="301">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="450" uniqueCount="324">
   <si>
     <t>P8_01</t>
   </si>
@@ -706,9 +699,6 @@
     <t>used</t>
   </si>
   <si>
-    <t>ShepV2-FN</t>
-  </si>
-  <si>
     <t>Mem_SCL</t>
   </si>
   <si>
@@ -883,9 +873,6 @@
     <t>copy-pin</t>
   </si>
   <si>
-    <t>ShepV2.1/2.2-Chg</t>
-  </si>
-  <si>
     <t>EN_Recorder</t>
   </si>
   <si>
@@ -937,7 +924,82 @@
     <t>prgm_dir2_TMS</t>
   </si>
   <si>
-    <t>ShepV2.3/2.4-FN</t>
+    <t>ShpV2.0</t>
+  </si>
+  <si>
+    <t>ShpV2.1/2.2-Chg</t>
+  </si>
+  <si>
+    <t>ShpV2.3/2.4</t>
+  </si>
+  <si>
+    <t>ShpV2.5</t>
+  </si>
+  <si>
+    <t>PWR_GOOD_H</t>
+  </si>
+  <si>
+    <t>PWR_GOOD_L</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO7</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO8</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO9</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO10 &amp; LED0</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO11 &amp; LED1</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO0_uRX</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO1_uTX</t>
+  </si>
+  <si>
+    <t>target_GPIO1_uTX</t>
+  </si>
+  <si>
+    <t>target_GPIO0_uRX</t>
+  </si>
+  <si>
+    <t>target_GPIO7</t>
+  </si>
+  <si>
+    <t>target_GPIO8</t>
+  </si>
+  <si>
+    <t>IO_DIR_Prog1</t>
+  </si>
+  <si>
+    <t>IO_DIR_Prog2</t>
+  </si>
+  <si>
+    <t>prog2_io</t>
+  </si>
+  <si>
+    <t>prog2_clk</t>
+  </si>
+  <si>
+    <t>gpio_dir_groupA</t>
+  </si>
+  <si>
+    <t>gpio_dir_groupB</t>
+  </si>
+  <si>
+    <t>gpio_dir_groupC</t>
+  </si>
+  <si>
+    <t>prog1_clk</t>
+  </si>
+  <si>
+    <t>prog1_io</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,6 +1068,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1019,24 +1087,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1068,28 +1138,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L95" totalsRowShown="0">
-  <autoFilter ref="A1:L95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M95" totalsRowShown="0">
+  <autoFilter ref="A1:M95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H95">
     <sortCondition ref="A1:A95"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PinHeader"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="GPIO"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
     <tableColumn id="8" xr3:uid="{8C433A76-0473-49F6-8F08-C993F448DC4D}" name="BB_Blocked"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PRU"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ShepV1-FN" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ShepV1-FN" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="GPS-Capelet"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="nRF52"/>
-    <tableColumn id="11" xr3:uid="{90E88DEF-CAC7-45D1-828A-EFFD1D0869D6}" name="copy-pin" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{90E88DEF-CAC7-45D1-828A-EFFD1D0869D6}" name="copy-pin" dataDxfId="3">
       <calculatedColumnFormula>Tabelle1[[#This Row],[PinHeader]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="ShepV2-FN" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShepV2.1/2.2-Chg"/>
-    <tableColumn id="13" xr3:uid="{54036102-03EB-4E8E-BEAE-88BCF54E0963}" name="ShepV2.3/2.4-FN" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="ShpV2.0" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShpV2.1/2.2-Chg"/>
+    <tableColumn id="13" xr3:uid="{54036102-03EB-4E8E-BEAE-88BCF54E0963}" name="ShpV2.3/2.4" dataDxfId="1">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" xr3:uid="{05B0D6F6-D0EF-4FEB-A1A2-31E31C532EC5}" name="ShpV2.5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,10 +1466,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,12 +1480,13 @@
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1440,26 +1512,29 @@
         <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1472,15 +1547,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_01</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1493,8 +1569,9 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_02</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1504,15 +1581,16 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I4" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_03</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1522,15 +1600,16 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I5" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_04</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1540,15 +1619,16 @@
       <c r="C6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I6" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_05</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1558,15 +1638,16 @@
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I7" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_06</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1586,15 +1667,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_07</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(GPS)</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>(GPS)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1608,21 +1693,25 @@
         <v>203</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I9" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_08</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L9" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(GPS)</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>(GPS)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1636,21 +1725,25 @@
         <v>203</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I10" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_09</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J10" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(GPS)</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>(GPS)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1664,15 +1757,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_10</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L11" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J11" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>WD_ACK</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>WD_ACK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1689,15 +1786,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_11</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J12" t="s">
+        <v>265</v>
+      </c>
+      <c r="L12" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru0_dbg_Led1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru0_dbg_Led1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1714,15 +1815,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_12</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J13" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru0_dbg_Led0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru0_dbg_Led0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1736,15 +1841,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_13</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>EN_Shepherd</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>EN_Shepherd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1755,15 +1864,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_14</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="L15" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J15" t="s">
+        <v>257</v>
+      </c>
+      <c r="L15" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_GPIO0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1777,15 +1889,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_15</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="L16" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_GPIO3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1799,16 +1914,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_16</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J17" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_GPIO2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1819,16 +1937,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_17</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J18" t="s">
+        <v>258</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_GPIO1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1839,16 +1960,20 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_18</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>BTN Sense</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>BTN Sense</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1862,23 +1987,27 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_19</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J20" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>BTN Led</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>BTN Led</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E21" t="s">
@@ -1888,16 +2017,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_20</v>
       </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="4"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>62</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>219</v>
       </c>
       <c r="E22" t="s">
@@ -1907,73 +2037,78 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_21</v>
       </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="4"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>37</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I23" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_22</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>36</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I24" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_23</v>
       </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="4"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>33</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I25" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_24</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K25" s="4"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>32</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>219</v>
       </c>
       <c r="I26" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_25</v>
       </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="4"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1984,16 +2119,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_26</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J27" t="s">
+        <v>279</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_GPIO4</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E28" t="s">
         <v>204</v>
@@ -2010,17 +2148,20 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_27</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2169,7 @@
         <v>88</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" t="s">
         <v>205</v>
@@ -2040,16 +2181,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_28</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru1_dbg_Led0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2057,7 +2201,7 @@
         <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" t="s">
         <v>206</v>
@@ -2066,17 +2210,20 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_29</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2084,7 +2231,7 @@
         <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
         <v>207</v>
@@ -2096,16 +2243,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_30</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru1_dbg_Led1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2116,19 +2266,21 @@
         <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I32" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_31</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K32" s="4"/>
+      <c r="L32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2139,19 +2291,21 @@
         <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I33" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_32</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="4"/>
+      <c r="L33" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2162,7 +2316,7 @@
         <v>142</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>119</v>
@@ -2171,13 +2325,15 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_33</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2188,7 +2344,7 @@
         <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>120</v>
@@ -2197,13 +2353,15 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_34</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K35" s="4"/>
+      <c r="L35" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2214,19 +2372,21 @@
         <v>144</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I36" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_35</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K36" s="4"/>
+      <c r="L36" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2237,7 +2397,7 @@
         <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>121</v>
@@ -2246,13 +2406,15 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_36</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K37" s="4"/>
+      <c r="L37" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2263,19 +2425,21 @@
         <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I38" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_37</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K38" s="4"/>
+      <c r="L38" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2286,19 +2450,21 @@
         <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I39" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_38</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K39" s="4"/>
+      <c r="L39" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2306,7 +2472,7 @@
         <v>76</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
         <v>208</v>
@@ -2315,17 +2481,20 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_39</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
+        <v>232</v>
+      </c>
+      <c r="K40" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2333,7 +2502,7 @@
         <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E41" t="s">
         <v>209</v>
@@ -2342,17 +2511,20 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_40</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2532,7 @@
         <v>74</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
         <v>210</v>
@@ -2372,15 +2544,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_41</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>229</v>
+      </c>
+      <c r="K42" s="4"/>
+      <c r="L42" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2388,7 +2563,7 @@
         <v>75</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E43" t="s">
         <v>211</v>
@@ -2400,15 +2575,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_42</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>230</v>
+      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2416,7 +2594,7 @@
         <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
         <v>212</v>
@@ -2431,18 +2609,21 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_43</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K44" s="7" t="s">
+      <c r="J44" t="s">
         <v>233</v>
       </c>
-      <c r="L44" s="9" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="K44" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru1_target_GPIO2</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2450,7 +2631,7 @@
         <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
         <v>213</v>
@@ -2465,18 +2646,21 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_44</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L45" s="9" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J45" t="s">
+        <v>234</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L45" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru1_target_GPIO3</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2484,7 +2668,7 @@
         <v>70</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" t="s">
         <v>214</v>
@@ -2499,16 +2683,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_45</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J46" t="s">
+        <v>235</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru1_target_GPIO0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2516,7 +2703,7 @@
         <v>71</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
         <v>215</v>
@@ -2531,23 +2718,26 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_46</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J47" t="s">
+        <v>236</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru1_target_GPIO1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2560,17 +2750,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_01</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K48" s="4"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2583,17 +2773,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_02</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K49" s="4"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -2606,17 +2796,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_03</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K50" s="4"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2629,48 +2819,48 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_04</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>218</v>
       </c>
       <c r="I52" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_05</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>218</v>
       </c>
       <c r="I53" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_06</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2680,16 +2870,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_07</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2699,41 +2889,41 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_08</v>
       </c>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>220</v>
       </c>
       <c r="I56" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_09</v>
       </c>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>220</v>
       </c>
       <c r="I57" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_10</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2750,15 +2940,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_11</v>
       </c>
-      <c r="J58" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L58" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J58" t="s">
+        <v>263</v>
+      </c>
+      <c r="L58" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_io_SEL</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>target_io_SEL</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2772,15 +2966,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_12</v>
       </c>
-      <c r="J59" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L59" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J59" t="s">
+        <v>261</v>
+      </c>
+      <c r="L59" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_io_EN</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>target_io_EN</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2794,15 +2992,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_13</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L60" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J60" t="s">
+        <v>262</v>
+      </c>
+      <c r="L60" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_Pwr_SEL</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>target_Pwr_SEL</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2816,15 +3018,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_14</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K61" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2838,12 +3042,12 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_15</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="L62" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2860,15 +3064,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_16</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K63" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2885,14 +3091,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_17</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>241</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2909,14 +3118,17 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_18</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>240</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2927,7 +3139,7 @@
         <v>176</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>176</v>
@@ -2936,15 +3148,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_19</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="L66" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J66" t="s">
+        <v>223</v>
+      </c>
+      <c r="L66" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>Mem_SCL</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>Mem_SCL</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -2955,7 +3171,7 @@
         <v>177</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>177</v>
@@ -2964,15 +3180,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_20</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L67" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J67" t="s">
+        <v>224</v>
+      </c>
+      <c r="L67" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>Mem_SDA</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>Mem_SDA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2982,7 +3202,7 @@
       <c r="C68" t="s">
         <v>185</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" t="s">
         <v>203</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -2992,15 +3212,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_21</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L68" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J68" t="s">
+        <v>225</v>
+      </c>
+      <c r="L68" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(GPS_UART)</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>(GPS_UART)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3010,7 +3234,7 @@
       <c r="C69" t="s">
         <v>186</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" t="s">
         <v>203</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -3020,15 +3244,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_22</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="L69" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J69" t="s">
+        <v>225</v>
+      </c>
+      <c r="L69" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(GPS_UART)</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="7" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>(GPS_UART)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -3039,15 +3267,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_23</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L70" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J70" t="s">
+        <v>237</v>
+      </c>
+      <c r="L70" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>Mem_WP</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>Mem_WP</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3070,15 +3302,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_24</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L71" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J71" t="s">
+        <v>259</v>
+      </c>
+      <c r="L71" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_uart_tx</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3086,7 +3321,7 @@
         <v>117</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
         <v>103</v>
@@ -3098,15 +3333,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_25</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L72" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J72" t="s">
+        <v>249</v>
+      </c>
+      <c r="L72" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_CS_ADC2_REC</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3129,15 +3365,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_26</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="L73" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J73" t="s">
+        <v>260</v>
+      </c>
+      <c r="L73" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>target_uart_rx</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -3145,7 +3384,7 @@
         <v>115</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s">
         <v>105</v>
@@ -3157,15 +3396,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_27</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L74" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J74" t="s">
+        <v>248</v>
+      </c>
+      <c r="L74" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_CS_DAC_REC</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -3173,10 +3415,10 @@
         <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
         <v>107</v>
@@ -3188,15 +3430,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_28</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="L75" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J75" t="s">
+        <v>247</v>
+      </c>
+      <c r="L75" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_CS_DAC_EMU</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru/SPI_CS_DAC_EMU</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -3207,7 +3453,7 @@
         <v>189</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E76" t="s">
         <v>109</v>
@@ -3219,15 +3465,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_29</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L76" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J76" t="s">
+        <v>246</v>
+      </c>
+      <c r="L76" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_MOSI</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru/SPI_MOSI</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -3238,7 +3488,7 @@
         <v>190</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
         <v>106</v>
@@ -3250,15 +3500,19 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_30</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="L77" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J77" t="s">
+        <v>245</v>
+      </c>
+      <c r="L77" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_MISO</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru/SPI_MISO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -3269,7 +3523,7 @@
         <v>191</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E78" t="s">
         <v>108</v>
@@ -3281,150 +3535,163 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_31</v>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L78" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J78" t="s">
+        <v>250</v>
+      </c>
+      <c r="L78" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_SCK</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru/SPI_SCK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I79" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_32</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="10"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
       <c r="C80" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I80" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_33</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="10"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
       <c r="C81" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I81" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_34</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="10"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I82" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_35</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="10"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
       <c r="C83" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I83" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_36</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="10"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I84" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_37</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="10"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I85" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_38</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="10"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="C86" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I86" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_39</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="10"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
       <c r="C87" t="s">
         <v>171</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>221</v>
       </c>
       <c r="I87" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_40</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="10"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -3434,7 +3701,7 @@
       <c r="C88" t="s">
         <v>195</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="6" t="s">
         <v>138</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -3444,15 +3711,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_41A</v>
       </c>
-      <c r="J88" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L88" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J88" t="s">
+        <v>242</v>
+      </c>
+      <c r="L88" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(shared pin)</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="10"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -3469,15 +3737,18 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_41B</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="L89" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J89" t="s">
+        <v>251</v>
+      </c>
+      <c r="L89" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_CS_ADC1_REC</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -3485,12 +3756,12 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F90" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>139</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -3500,15 +3771,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_42A</v>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L90" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J90" t="s">
+        <v>242</v>
+      </c>
+      <c r="L90" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>(shared pin)</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="10"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -3516,7 +3788,7 @@
         <v>114</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E91" t="s">
         <v>104</v>
@@ -3528,22 +3800,26 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_42B</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="L91" s="3" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+      <c r="J91" t="s">
+        <v>252</v>
+      </c>
+      <c r="L91" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
         <v>pru/SPI_CS_ADC_EMU</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" t="str">
+        <f>Tabelle1[[#This Row],[ShpV2.0]]</f>
+        <v>pru/SPI_CS_ADC_EMU</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>85</v>
       </c>
       <c r="C92" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -3556,15 +3832,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_43</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="10"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
       <c r="C93" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -3574,15 +3851,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_44</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="10"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -3592,15 +3870,16 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_45</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="10"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>89</v>
       </c>
       <c r="C95" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -3610,8 +3889,9 @@
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_46</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="10"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>197</v>
       </c>
@@ -3620,8 +3900,8 @@
       <c r="C97" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>270</v>
+      <c r="D97" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="H97" t="s">
         <v>198</v>
@@ -3629,29 +3909,29 @@
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D98" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J98" s="5" t="s">
-        <v>276</v>
+      <c r="J98" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D99" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J99" s="5" t="s">
+      <c r="J99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J100" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
